--- a/biology/Botanique/Carlina_corymbosa/Carlina_corymbosa.xlsx
+++ b/biology/Botanique/Carlina_corymbosa/Carlina_corymbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlina corymbosa
 La Carline en corymbe (Carlina corymbosa) est une espèce de plante appartenant au genre Carlina et à la famille des Astéracées (ou Composées). Elle pousse essentiellement sur le pourtour méditerranéen, sur des terrains ensoleillés, sablonneux ou rocailleux.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace vert blanchâtre à tige érigée, de hauteur variable (de 10 à 90 cm). Feuilles alternes et sessiles, plus ou moins enroulées, à dents très épineuses. Bractées extérieures semblables aux feuilles. Bractées intérieures rayonnantes, membraneuses et raides, de couleur dorée, entourant le disque des fleurons. Ces derniers sont tous tubulés et à cinq lobes, de couleur jaune. Les fruits sont des akènes velus à pappus plumeux et jaunâtre.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : corymbe de capitules
@@ -585,7 +601,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est protégée en région Aquitaine (Article 1).
 Sur les autres projets Wikimedia :
